--- a/src/zdemo_excel2.w3mi.data.xlsx
+++ b/src/zdemo_excel2.w3mi.data.xlsx
@@ -158,7 +158,7 @@
       </gradientFill>
     </fill>
     <fill>
-      <gradientFill type="path" bottom="0.5" top="0.5" right="0.5" left="0.5">
+      <gradientFill type="path" bottom="1" top="1" right="1" left="1">
         <stop position="0">
           <color rgb="FFFFFFFF" indexed="64"/>
         </stop>

--- a/src/zdemo_excel2.w3mi.data.xlsx
+++ b/src/zdemo_excel2.w3mi.data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t/>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>horizontalb</t>
+  </si>
+  <si>
+    <t>little off fromCenter</t>
   </si>
   <si>
     <t>vertical</t>
@@ -116,7 +119,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none">
         <bgColor indexed="64"/>
@@ -290,6 +293,16 @@
       <patternFill patternType="solid">
         <fgColor indexed="16"/>
       </patternFill>
+    </fill>
+    <fill>
+      <gradientFill type="path" bottom="0.4" top="0.3" right="0.4" left="0.3">
+        <stop position="0">
+          <color rgb="FFFFFFFF" indexed="64"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF0000FF"/>
+        </stop>
+      </gradientFill>
     </fill>
   </fills>
   <borders count="3">
@@ -336,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="1" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -360,6 +373,7 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -792,17 +806,20 @@
     </row>
     <row r="17" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
       <c r="C17" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
       <c r="B18" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
       <c r="C19" s="17" t="s">
         <v>16</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:5" customHeight="1" ht="3.0000000000000000E+01">
